--- a/03 GUI测试/WoniuBoss_GUI_Test/data/ResourceAdministration_Info.xlsx
+++ b/03 GUI测试/WoniuBoss_GUI_Test/data/ResourceAdministration_Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9840"/>
+    <workbookView windowWidth="23325" windowHeight="9840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TrainingResource" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
 grade=高
 time=2020-05-19
 content=懒得写
-inclass=WNCDC009
+inclass=WNCDC99
 tuition=18800
 deposit=800
 pay=支付宝
@@ -227,7 +227,7 @@
   <si>
     <t>area=成都
 department=咨询部
-counselor=郑雪娇</t>
+counselor=香蕉</t>
   </si>
   <si>
     <t>deliver_pass</t>
@@ -238,7 +238,7 @@
   <si>
     <t>area=上海
 department=咨询部
-counselor=如来</t>
+counselor=苹果</t>
   </si>
 </sst>
 </file>
@@ -1264,8 +1264,8 @@
   <sheetPr/>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1767,8 +1767,8 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>

--- a/03 GUI测试/WoniuBoss_GUI_Test/data/ResourceAdministration_Info.xlsx
+++ b/03 GUI测试/WoniuBoss_GUI_Test/data/ResourceAdministration_Info.xlsx
@@ -124,7 +124,7 @@
 tuition=18800
 deposit=800
 pay=支付宝
-account=学员缴费账户
+account=成都专用
 paytime=2020-05-01</t>
   </si>
   <si>
@@ -158,12 +158,12 @@
     <t>CommonResource</t>
   </si>
   <si>
-    <t>area=成都
-department=咨询部
-abandon=郑雪娇
-status=新认领
-source=自然流量
-education=其他学历
+    <t>area=全部
+department=全部
+abandon=全部
+status=全部
+source=全部
+education=全部
 condition=剑姬</t>
   </si>
   <si>
@@ -441,187 +441,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,145 +755,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1264,8 +1264,8 @@
   <sheetPr/>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1674,7 +1674,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
